--- a/PetStoreAPP - Ridho.xlsx
+++ b/PetStoreAPP - Ridho.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7695" activeTab="4"/>
+    <workbookView windowWidth="9375" windowHeight="7455" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Project Name" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
   <si>
     <t>User</t>
   </si>
@@ -312,10 +312,43 @@
     <t>Create User</t>
   </si>
   <si>
-    <t>Create new user lengkap dan menekan tombol simpan</t>
+    <t>Input form User ID, data: ikan</t>
   </si>
   <si>
-    <t>User baru berhasil dibuat dan menampilkan halaman Sign In</t>
+    <t>Data User ID tampil di dalam form</t>
+  </si>
+  <si>
+    <t>PetStoreAPP.008</t>
+  </si>
+  <si>
+    <t>Input form New Password, data: passikan</t>
+  </si>
+  <si>
+    <t>Data New Password tampil di dalam form</t>
+  </si>
+  <si>
+    <t>PetStoreAPP.009</t>
+  </si>
+  <si>
+    <t>Input form Repeat Password, data: passikan</t>
+  </si>
+  <si>
+    <t>Data repeat Password tampil di dalam form</t>
+  </si>
+  <si>
+    <t>PetStoreAPP.010</t>
+  </si>
+  <si>
+    <t>Input form First name</t>
+  </si>
+  <si>
+    <t>PetStoreAPP.011</t>
+  </si>
+  <si>
+    <t>PetStoreAPP.012</t>
+  </si>
+  <si>
+    <t>PetStoreAPP.013</t>
   </si>
   <si>
     <t>Total Case =</t>
@@ -335,11 +368,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="d\-mmm"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="d\-mmm"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -495,6 +528,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -504,14 +538,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -532,6 +558,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -541,45 +581,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,16 +596,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,14 +649,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,7 +757,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,67 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,79 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,19 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,11 +1088,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,23 +1115,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,21 +1156,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,58 +1188,58 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1215,88 +1248,88 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1376,9 +1409,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,6 +1416,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1570,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6747,8 +6780,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -7223,11 +7256,21 @@
       <c r="A12" s="29">
         <v>7</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="B12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="G12" s="15"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
@@ -7253,11 +7296,21 @@
       <c r="A13" s="29">
         <v>8</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="B13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
@@ -7283,10 +7336,18 @@
       <c r="A14" s="29">
         <v>9</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>97</v>
+      </c>
       <c r="F14" s="31"/>
       <c r="G14" s="15"/>
       <c r="H14" s="32"/>
@@ -7313,12 +7374,18 @@
       <c r="A15" s="29">
         <v>10</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
+      <c r="B15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="33"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="35"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="66"/>
@@ -7343,10 +7410,16 @@
       <c r="A16" s="29">
         <v>11</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="36"/>
+      <c r="B16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="35"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="32"/>
@@ -7373,11 +7446,17 @@
       <c r="A17" s="29">
         <v>12</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
+      <c r="B17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="15"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
@@ -7405,7 +7484,7 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="33"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="39"/>
       <c r="F18" s="40"/>
       <c r="G18" s="15"/>
@@ -7435,7 +7514,7 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="15"/>
@@ -7465,7 +7544,7 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="33"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="15"/>
@@ -7495,7 +7574,7 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="33"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="15"/>
@@ -9188,7 +9267,7 @@
     <row r="80" ht="15.75" customHeight="1" spans="1:26">
       <c r="A80" s="74"/>
       <c r="B80" s="75" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C80" s="76">
         <f>SUM(C81:C83)</f>
@@ -9221,7 +9300,7 @@
     <row r="81" ht="15.75" customHeight="1" spans="1:26">
       <c r="A81" s="74"/>
       <c r="B81" s="75" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C81" s="76">
         <f>COUNT(L4:L75)</f>
@@ -9254,7 +9333,7 @@
     <row r="82" ht="15.75" customHeight="1" spans="1:26">
       <c r="A82" s="73"/>
       <c r="B82" s="76" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C82" s="76">
         <f>COUNT(M4:M75)</f>
@@ -9287,7 +9366,7 @@
     <row r="83" ht="15.75" customHeight="1" spans="1:26">
       <c r="A83" s="73"/>
       <c r="B83" s="76" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C83" s="76">
         <f>COUNT(N4:N75)</f>
@@ -35057,11 +35136,11 @@
     <mergeCell ref="A1:I2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="H4;H10;H11;H5:H9;H12:H75">
+      <formula1>"Pass,Fail,(Blank)"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="I10;I11;I4:I9;I12:I75">
       <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H4;H10;H11;H5:H9;H12:H75">
-      <formula1>"Pass,Fail,(Blank)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
